--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -151,10 +151,6 @@
   <si>
     <t>医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。  
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1829,13 +1825,13 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>41</v>
@@ -1846,10 +1842,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1860,28 +1856,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1931,13 +1927,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1960,10 +1956,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1974,25 +1970,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2043,19 +2039,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2072,10 +2068,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2086,28 +2082,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2157,19 +2153,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2186,10 +2182,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2200,7 +2196,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2212,16 +2208,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2247,43 +2243,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2300,21 +2296,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2326,16 +2322,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2385,25 +2381,25 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>41</v>
@@ -2414,14 +2410,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2440,16 +2436,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2499,7 +2495,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2517,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>41</v>
@@ -2528,10 +2524,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2554,13 +2550,13 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2599,17 +2595,17 @@
         <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2621,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2638,13 +2634,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>41</v>
@@ -2654,7 +2650,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>41</v>
@@ -2666,13 +2662,13 @@
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2723,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2732,10 +2728,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2752,14 +2748,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2772,25 +2768,25 @@
         <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2839,7 +2835,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2851,13 +2847,13 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>41</v>
@@ -2868,10 +2864,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2891,16 +2887,16 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2951,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2963,27 +2959,27 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2991,31 +2987,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3041,63 +3037,63 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3120,16 +3116,16 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3179,7 +3175,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3191,13 +3187,13 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -3208,10 +3204,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3222,7 +3218,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3234,13 +3230,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3291,13 +3287,13 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
@@ -3309,7 +3305,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>41</v>
@@ -3320,14 +3316,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3346,16 +3342,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3405,7 +3401,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3417,13 +3413,13 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>41</v>
@@ -3434,14 +3430,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3454,25 +3450,25 @@
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N16" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3521,7 +3517,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3533,13 +3529,13 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3550,10 +3546,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3561,10 +3557,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3576,16 +3572,16 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3611,14 +3607,14 @@
         <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>41</v>
       </c>
@@ -3635,25 +3631,25 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3664,10 +3660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3675,10 +3671,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3690,16 +3686,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3749,25 +3745,25 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3778,10 +3774,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3789,31 +3785,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3839,63 +3835,63 @@
         <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3918,13 +3914,13 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3975,7 +3971,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3987,13 +3983,13 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4004,10 +4000,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4018,7 +4014,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4030,13 +4026,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4087,13 +4083,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4105,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -4116,14 +4112,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4142,16 +4138,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4201,7 +4197,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4213,13 +4209,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4230,14 +4226,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4250,25 +4246,25 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N23" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4317,7 +4313,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4329,13 +4325,13 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4346,10 +4342,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4357,10 +4353,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4372,16 +4368,16 @@
         <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4407,14 +4403,14 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4431,25 +4427,25 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4460,10 +4456,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4471,10 +4467,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4486,16 +4482,16 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4545,25 +4541,25 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4574,10 +4570,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4597,19 +4593,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4635,14 +4631,14 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4659,7 +4655,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4671,27 +4667,27 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4702,25 +4698,25 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4747,63 +4743,63 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4814,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4826,13 +4822,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4859,95 +4855,95 @@
         <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4997,39 +4993,39 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5049,16 +5045,16 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5109,7 +5105,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5121,31 +5117,31 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5164,13 +5160,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5221,7 +5217,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5233,13 +5229,13 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5250,10 +5246,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5273,16 +5269,16 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5333,7 +5329,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5345,27 +5341,27 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5376,7 +5372,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5388,13 +5384,13 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5445,13 +5441,13 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
@@ -5463,7 +5459,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5474,14 +5470,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5500,16 +5496,16 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5559,7 +5555,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5571,13 +5567,13 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5588,14 +5584,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5608,25 +5604,25 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5675,7 +5671,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5687,13 +5683,13 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5704,10 +5700,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5727,19 +5723,19 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5765,13 +5761,13 @@
         <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>41</v>
@@ -5789,7 +5785,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5801,27 +5797,27 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5832,7 +5828,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5844,13 +5840,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5901,39 +5897,39 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5944,25 +5940,25 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6013,39 +6009,39 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6065,16 +6061,16 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6125,7 +6121,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6137,27 +6133,27 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6168,7 +6164,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6180,16 +6176,16 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6239,39 +6235,39 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6282,7 +6278,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6294,16 +6290,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6353,43 +6349,43 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6405,19 +6401,19 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6443,14 +6439,14 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6479,31 +6475,31 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6519,19 +6515,19 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6581,7 +6577,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6593,27 +6589,27 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6633,16 +6629,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6693,7 +6689,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6705,13 +6701,13 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6722,10 +6718,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6736,7 +6732,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6748,13 +6744,13 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6805,13 +6801,13 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
@@ -6823,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6834,14 +6830,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6860,16 +6856,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6919,7 +6915,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6931,13 +6927,13 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6948,14 +6944,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6968,25 +6964,25 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7035,7 +7031,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7047,13 +7043,13 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7064,42 +7060,42 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7149,39 +7145,39 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7192,7 +7188,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7204,13 +7200,13 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7237,14 +7233,14 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7261,25 +7257,25 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7290,10 +7286,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7304,7 +7300,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7316,13 +7312,13 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7373,25 +7369,25 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7402,10 +7398,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7428,16 +7424,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7487,7 +7483,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7499,13 +7495,13 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7516,10 +7512,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7530,7 +7526,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7542,16 +7538,16 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7601,25 +7597,25 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7630,10 +7626,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7644,7 +7640,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7656,13 +7652,13 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7713,13 +7709,13 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
@@ -7731,7 +7727,7 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7742,14 +7738,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7768,16 +7764,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7827,7 +7823,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7839,13 +7835,13 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7856,14 +7852,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7876,25 +7872,25 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N55" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7943,7 +7939,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7955,13 +7951,13 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7972,10 +7968,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7986,7 +7982,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7998,13 +7994,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8055,39 +8051,39 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8098,7 +8094,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8110,13 +8106,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8167,25 +8163,25 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8196,10 +8192,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8210,7 +8206,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -8222,13 +8218,13 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8255,63 +8251,63 @@
         <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8322,7 +8318,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -8334,13 +8330,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8367,63 +8363,63 @@
         <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8446,19 +8442,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8483,14 +8479,14 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8507,7 +8503,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8519,27 +8515,27 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8562,13 +8558,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8595,14 +8591,14 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8619,7 +8615,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8631,27 +8627,27 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8674,13 +8670,13 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8707,14 +8703,14 @@
         <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8731,7 +8727,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8743,27 +8739,27 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8774,7 +8770,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8786,13 +8782,13 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8843,39 +8839,39 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8886,7 +8882,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -8898,13 +8894,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8931,63 +8927,63 @@
         <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z64" t="s" s="2">
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AA64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9010,16 +9006,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9069,7 +9065,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9081,13 +9077,13 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9098,10 +9094,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9112,7 +9108,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9124,13 +9120,13 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9181,13 +9177,13 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
@@ -9199,7 +9195,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9210,14 +9206,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9236,16 +9232,16 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9295,7 +9291,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9307,13 +9303,13 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9324,14 +9320,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9344,25 +9340,25 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9411,7 +9407,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9423,13 +9419,13 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9440,10 +9436,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9451,10 +9447,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -9466,13 +9462,13 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9523,39 +9519,39 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9566,7 +9562,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -9578,16 +9574,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9613,49 +9609,49 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9666,10 +9662,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9680,7 +9676,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -9692,16 +9688,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9727,14 +9723,14 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9751,19 +9747,19 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -9780,10 +9776,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9794,7 +9790,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -9806,13 +9802,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9863,25 +9859,25 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9892,10 +9888,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9906,7 +9902,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>41</v>
@@ -9918,13 +9914,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9975,39 +9971,39 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10018,7 +10014,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10030,16 +10026,16 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10089,25 +10085,25 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
